--- a/data/VLE_data.xlsx
+++ b/data/VLE_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven/Dropbox (Naien@CMU)/Masters Project/Simple Model/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven/Documents/GitHub/FT-Reactive-Distillation-Pyomo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4060" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="henry" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="H5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User: N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -59,32 +82,41 @@
     <t>C3H8</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>dHen</t>
   </si>
   <si>
     <t>C6H14</t>
+  </si>
+  <si>
+    <t>hen_A</t>
+  </si>
+  <si>
+    <t>hen_B</t>
+  </si>
+  <si>
+    <t>hen_C</t>
+  </si>
+  <si>
+    <t>hen_D</t>
+  </si>
+  <si>
+    <t>hen_E</t>
+  </si>
+  <si>
+    <t>dV</t>
+  </si>
+  <si>
+    <t>V_A</t>
+  </si>
+  <si>
+    <t>V_B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,13 +124,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -122,6 +166,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -400,11 +447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -414,30 +461,39 @@
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -460,8 +516,17 @@
       <c r="G2" s="2">
         <v>2244.61</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="2">
+        <v>0.70442400000000005</v>
+      </c>
+      <c r="I2" s="2">
+        <v>-64.942400000000006</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.23730100000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -483,8 +548,17 @@
       <c r="G3" s="2">
         <v>2031.63</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="2">
+        <v>1.5053799999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-18.352799999999998</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.160773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -506,8 +580,17 @@
       <c r="G4" s="2">
         <v>-144960</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-124.328</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.25007499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -529,8 +612,17 @@
       <c r="G5" s="2">
         <v>-465952</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -552,8 +644,17 @@
       <c r="G6" s="2">
         <v>-4257.18</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="2">
+        <v>2.4760300000000002</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-7.4135400000000002</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.16905100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -575,8 +676,17 @@
       <c r="G7" s="2">
         <v>-183928</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="2">
+        <v>5.0830799999999998</v>
+      </c>
+      <c r="I7" s="2">
+        <v>93.6738</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -598,8 +708,17 @@
       <c r="G8" s="2">
         <v>-239557</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="2">
+        <v>8.0241299999999995</v>
+      </c>
+      <c r="I8" s="2">
+        <v>66.465699999999998</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -621,8 +740,17 @@
       <c r="G9" s="2">
         <v>-314944</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -644,10 +772,19 @@
       <c r="G10" s="2">
         <v>-291596</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>1.7396999999999999E-2</v>
@@ -667,8 +804,18 @@
       <c r="G11" s="2">
         <v>-650347</v>
       </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>